--- a/2023_D3MI_daftar_mahasiswa.xlsx
+++ b/2023_D3MI_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Python Scripts\Nilai Mahasiswa ver 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928AB8FB-F4C5-4BAA-8E53-71438D574C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17F076E-6FB1-448A-AD9B-8BCE24DF7EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Nama</t>
   </si>
@@ -48,54 +48,18 @@
     <t>ADILFON NEHE</t>
   </si>
   <si>
-    <t>AGUNG WIDIATAMA</t>
-  </si>
-  <si>
-    <t>ARDIANI GINTING</t>
-  </si>
-  <si>
-    <t>CHANDRA ARDIANSYAH HASIBUAN</t>
-  </si>
-  <si>
     <t>DERMINA MAHARAJA</t>
   </si>
   <si>
-    <t>DEWI ANA FITRI NASUTION</t>
-  </si>
-  <si>
-    <t>EKA DAME SARI SIREGAR</t>
-  </si>
-  <si>
     <t>EKO WAHYU SAPUTRO</t>
   </si>
   <si>
-    <t>ELPIANA SIPAYUNG</t>
-  </si>
-  <si>
-    <t>ELSAWATI PAKPAHAN</t>
-  </si>
-  <si>
     <t>ERIKA ERWIN JAYA GIAWA</t>
   </si>
   <si>
-    <t>FARREL DIVA ELIASAR SARAGIH</t>
-  </si>
-  <si>
-    <t>FEBRY PURBA</t>
-  </si>
-  <si>
-    <t>FELIS MARKUS TINAMBUNAN</t>
-  </si>
-  <si>
-    <t>FITRI ROMIANA SAGALA</t>
-  </si>
-  <si>
     <t>HALASON TUA SIREGAR</t>
   </si>
   <si>
-    <t>HASANEMA NDRAHA</t>
-  </si>
-  <si>
     <t>HENRIKA EDINNA SIREGAR</t>
   </si>
   <si>
@@ -105,9 +69,6 @@
     <t>IIN KRISTINA TINAMBUNAN</t>
   </si>
   <si>
-    <t>INDRI RIZKIYAH HARAHAP</t>
-  </si>
-  <si>
     <t>JOSUA PARDAMEAN MANURUNG</t>
   </si>
   <si>
@@ -117,30 +78,15 @@
     <t>JUNITA ZEBUA</t>
   </si>
   <si>
-    <t>KHOIRIYAH DALIMUNTHE</t>
-  </si>
-  <si>
-    <t>LASNI DELIMA SIMANULLANG</t>
-  </si>
-  <si>
     <t>LOVANI ANARTI GIRSANG</t>
   </si>
   <si>
-    <t>MANDA SARI NAIBAHO</t>
-  </si>
-  <si>
     <t>MARIA DOLOROSA LILIS FESTIANI FAU</t>
   </si>
   <si>
-    <t>MARIA S. LUMBANTORUAN</t>
-  </si>
-  <si>
     <t>MARIA YULIANA SAVITRI BR HUTASOIT</t>
   </si>
   <si>
-    <t>MAWARTA BR SINAGA</t>
-  </si>
-  <si>
     <t>MIRA DILA SYAFITRI GURNING</t>
   </si>
   <si>
@@ -156,66 +102,24 @@
     <t>OKTOVITA LAMTIURMA SIPAYUNG</t>
   </si>
   <si>
-    <t>PRANS SISCO SIMANJUNTAK</t>
-  </si>
-  <si>
     <t>PUTRA DAMAI SEJAHTERA BATEE</t>
   </si>
   <si>
-    <t>PUTRI AFIFAH NASUTION</t>
-  </si>
-  <si>
-    <t>RAHMI CAHAYANI SIANIPAR</t>
-  </si>
-  <si>
     <t>RANTI SUSANTI</t>
   </si>
   <si>
-    <t>RINDA HUTAGALUNG</t>
-  </si>
-  <si>
     <t>RIVANDO SITINJAK</t>
   </si>
   <si>
-    <t>ROYANI SIBARANI</t>
-  </si>
-  <si>
     <t>ROYANTI K PASARIBU</t>
   </si>
   <si>
-    <t>S. CLAUDIA OMPUSUNGGU</t>
-  </si>
-  <si>
-    <t>SAMNI ARTA SIHOMBING</t>
-  </si>
-  <si>
     <t>SARAH NATALIE PAKPAHAN</t>
   </si>
   <si>
     <t>SELFAN WANIS BAWAMENEWI</t>
   </si>
   <si>
-    <t>SISKA NOMIA BERUTU</t>
-  </si>
-  <si>
-    <t>SITI RATNA SARI NASUTION</t>
-  </si>
-  <si>
-    <t>SUN ANGEL FEBRYANI BR BUTAR-BUTAR</t>
-  </si>
-  <si>
-    <t>SURYANI A.G. SHELLA</t>
-  </si>
-  <si>
-    <t>VELATE PUTRI ZENDRATO</t>
-  </si>
-  <si>
-    <t>WIRA ASTIKA SIHITE</t>
-  </si>
-  <si>
-    <t>YOLA CRISTINE BANCIN</t>
-  </si>
-  <si>
     <t>AYU ASARI TARIHORAN</t>
   </si>
   <si>
@@ -231,9 +135,6 @@
     <t>JULIANTI</t>
   </si>
   <si>
-    <t>JONATHAN HOSE SIHOMBING</t>
-  </si>
-  <si>
     <t>PUTRI SIGALINGGING</t>
   </si>
   <si>
@@ -282,9 +183,6 @@
     <t>zebuajuniati755@gmail.com</t>
   </si>
   <si>
-    <t>manullanglasnidelima@gmail.com</t>
-  </si>
-  <si>
     <t>lovanigirsang@gmail.com</t>
   </si>
   <si>
@@ -325,6 +223,27 @@
   </si>
   <si>
     <t>putrisigalingging158@gmail.com</t>
+  </si>
+  <si>
+    <t>M. NAZRI</t>
+  </si>
+  <si>
+    <t>RUDI RESKAVI</t>
+  </si>
+  <si>
+    <t>RAHEL FITRI A SIAHAAN</t>
+  </si>
+  <si>
+    <t>zebuajunita702@gmail.com</t>
+  </si>
+  <si>
+    <t>rudibg1234@gmail.com</t>
+  </si>
+  <si>
+    <t>siahaanrahel835@gmail.com</t>
+  </si>
+  <si>
+    <t>ypasaribu518@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -375,237 +294,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -930,10 +619,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:E976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -971,31 +660,37 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>IF(C2=C3,A2,A2+1)</f>
+        <f>IF(B2=B3,A2,A2+1)</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <v>202301002</v>
+        <v>202301003</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">IF(C3=C4,A3,A3+1)</f>
+        <f t="shared" ref="A4:A40" si="0">IF(B3=B4,A3,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4">
-        <v>202301003</v>
+        <v>202301005</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1004,64 +699,70 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>202301004</v>
+        <v>202301008</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>202301005</v>
+        <v>202301008</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>202301006</v>
+        <v>202301009</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>202301011</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>202301007</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+      <c r="D8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>202301016</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9">
-        <v>202301008</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1070,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>202301008</v>
+        <v>202301017</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -1085,786 +786,475 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>202301009</v>
+        <v>202301018</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>202301010</v>
+        <v>202301018</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>202301011</v>
+        <v>202301019</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>202301012</v>
+        <v>202301020</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>202301013</v>
+        <v>202301022</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>202301014</v>
+        <v>202301023</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>202301015</v>
+        <v>202301024</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>202301016</v>
+        <v>202301024</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>202301017</v>
+        <v>202301027</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>202301018</v>
+        <v>202301029</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>202301018</v>
+        <v>202301031</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>202301019</v>
+        <v>202301033</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>202301020</v>
+        <v>202301034</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>202301021</v>
+        <v>202301035</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>202301022</v>
+        <v>202301036</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>202301023</v>
+        <v>202301037</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>202301024</v>
+        <v>202301039</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>202301025</v>
+        <v>202301042</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>202301026</v>
+        <v>202301043</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>202301027</v>
+        <v>202301044</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>202301028</v>
+        <v>202301046</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>202301029</v>
+        <v>202301046</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>202301030</v>
+        <v>202301049</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>202301031</v>
+        <v>202301050</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>202301032</v>
+        <v>202301050</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>202301033</v>
+        <v>202301055</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>202301056</v>
+      </c>
+      <c r="C37" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>202301034</v>
-      </c>
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
       <c r="D37" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>202301035</v>
+        <v>202301059</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>202301036</v>
+        <v>202301060</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>202301037</v>
+        <v>202301061</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>202301038</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B42">
-        <v>202301039</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B43">
-        <v>202301040</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B44">
-        <v>202301041</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B45">
-        <v>202301042</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="B46">
-        <v>202301043</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="B47">
-        <v>202301044</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B48">
-        <v>202301045</v>
-      </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B49">
-        <v>202301046</v>
-      </c>
-      <c r="C49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B50">
-        <v>202301047</v>
-      </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="B51">
-        <v>202301048</v>
-      </c>
-      <c r="C51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B52">
-        <v>202301049</v>
-      </c>
-      <c r="C52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B53">
-        <v>202301050</v>
-      </c>
-      <c r="C53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D53" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B54">
-        <v>202301050</v>
-      </c>
-      <c r="C54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B55">
-        <v>202301051</v>
-      </c>
-      <c r="C55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B56">
-        <v>202301052</v>
-      </c>
-      <c r="C56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B57">
-        <v>202301053</v>
-      </c>
-      <c r="C57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B58">
-        <v>202301054</v>
-      </c>
-      <c r="C58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B59">
-        <v>202301055</v>
-      </c>
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B60">
-        <v>202301056</v>
-      </c>
-      <c r="C60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B61">
-        <v>202301057</v>
-      </c>
-      <c r="C61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B62">
-        <v>202301058</v>
-      </c>
-      <c r="C62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B63">
-        <v>202301059</v>
-      </c>
-      <c r="C63" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B64">
-        <v>202301060</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B65">
-        <v>202301061</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B66">
-        <v>202301062</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B67">
-        <v>202301063</v>
-      </c>
-      <c r="C67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" ref="A68" si="1">IF(C67=C68,A67,A67+1)</f>
-        <v>64</v>
-      </c>
-      <c r="B68">
-        <v>202301064</v>
-      </c>
-      <c r="C68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1289,6 @@
     <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1927,6 +1316,7 @@
     <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2760,75 +2150,42 @@
     <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B69:C163">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+  <conditionalFormatting sqref="B41:C135">
+    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H28:H53">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="H2 H19:H34">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="30" priority="9"/>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24 B2:C16 B18:C22">
-    <cfRule type="duplicateValues" dxfId="29" priority="10"/>
+  <conditionalFormatting sqref="B2:C10">
+    <cfRule type="duplicateValues" dxfId="6" priority="147"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17:C17">
-    <cfRule type="duplicateValues" dxfId="28" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+  <conditionalFormatting sqref="D2 D4:D9 D11">
+    <cfRule type="duplicateValues" dxfId="5" priority="151"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B42 B43:C68">
-    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+  <conditionalFormatting sqref="B14 B2:C13">
+    <cfRule type="duplicateValues" dxfId="4" priority="158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C19">
-    <cfRule type="duplicateValues" dxfId="24" priority="4"/>
+  <conditionalFormatting sqref="C2:C27">
+    <cfRule type="duplicateValues" dxfId="3" priority="225"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C42">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+  <conditionalFormatting sqref="D2 D4:D9 D11:D27">
+    <cfRule type="duplicateValues" dxfId="2" priority="227"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D20">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+  <conditionalFormatting sqref="B15:B27 B28:C40">
+    <cfRule type="duplicateValues" dxfId="1" priority="287"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D42">
-    <cfRule type="duplicateValues" dxfId="21" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C150">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B2:C122">
+    <cfRule type="duplicateValues" dxfId="0" priority="289"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2023_D3MI_daftar_mahasiswa.xlsx
+++ b/2023_D3MI_daftar_mahasiswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACLAB\Documents\Python Scripts\Nilai Mahasiswa 2023 GANJIL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\My Python Project\match-googleclassroom-grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17F076E-6FB1-448A-AD9B-8BCE24DF7EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9DBB91-CB54-42D4-A77A-ACEB3CCD9B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t>Nama</t>
   </si>
@@ -244,13 +244,190 @@
   </si>
   <si>
     <t>ypasaribu518@gmail.com</t>
+  </si>
+  <si>
+    <t>juniorlumbangaol0@gmail.com</t>
+  </si>
+  <si>
+    <t>LASNI DELIMA SIMANULLANG</t>
+  </si>
+  <si>
+    <t>manullanglasnidelima@gmail.com</t>
+  </si>
+  <si>
+    <t>novenus231104@gmail.com</t>
+  </si>
+  <si>
+    <t>pendidikanperkuliahan@gmail.com</t>
+  </si>
+  <si>
+    <t>rudisyaputra889900@gmail.com</t>
+  </si>
+  <si>
+    <t>CHANDRA ARDIANSYAH HASIBUAN</t>
+  </si>
+  <si>
+    <t>syakillajasmine26@gmail.com</t>
+  </si>
+  <si>
+    <t>DEWI ANA FITRI NASUTION</t>
+  </si>
+  <si>
+    <t>dewiananasution50@gmail.com</t>
+  </si>
+  <si>
+    <t>EKA DAME SARI SIREGAR</t>
+  </si>
+  <si>
+    <t>ekasarisiregar605@gmail.com</t>
+  </si>
+  <si>
+    <t>ELSAWATI PAKPAHAN</t>
+  </si>
+  <si>
+    <t>elsapakpahan40@gmail.com</t>
+  </si>
+  <si>
+    <t>FARREL DIVA ELIASAR SARAGIH</t>
+  </si>
+  <si>
+    <t>farrelasegeboy@gmail.com</t>
+  </si>
+  <si>
+    <t>FEBRY PURBA</t>
+  </si>
+  <si>
+    <t>febrypurba1945@gmail.com</t>
+  </si>
+  <si>
+    <t>FITRI ROMIANA SAGALA</t>
+  </si>
+  <si>
+    <t>pajlisagala361@gmail.com</t>
+  </si>
+  <si>
+    <t>JONATHAN HOSE SIHOMBING</t>
+  </si>
+  <si>
+    <t>jonathanhose08@gmail.com</t>
+  </si>
+  <si>
+    <t>KHOIRIYAH DALIMUNTHE</t>
+  </si>
+  <si>
+    <t>rhiyakhoi@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadolorosafau@gmail.com</t>
+  </si>
+  <si>
+    <t>MARIA S. LUMBANTORUAN</t>
+  </si>
+  <si>
+    <t>mariasilvanilumbantoruan@gmail.com</t>
+  </si>
+  <si>
+    <t>MAWARTA BR SINAGA</t>
+  </si>
+  <si>
+    <t>mawarrsinaga@gmail.com</t>
+  </si>
+  <si>
+    <t>PRANS SISCO SIMANJUNTAK</t>
+  </si>
+  <si>
+    <t>pransiscosimanjuntak752@gmail.com</t>
+  </si>
+  <si>
+    <t>PUTRI AFIFAH NASUTION</t>
+  </si>
+  <si>
+    <t>nstafifah42@gmail.com</t>
+  </si>
+  <si>
+    <t>RAHMI CAHAYANI SIANIPAR</t>
+  </si>
+  <si>
+    <t>rahmicahayani36@gmail.com</t>
+  </si>
+  <si>
+    <t>ROYANI SIBARANI</t>
+  </si>
+  <si>
+    <t>roysbrn1@gmail.com</t>
+  </si>
+  <si>
+    <t>royanisibarani9@gmail.com</t>
+  </si>
+  <si>
+    <t>SAMNI ARTA SIHOMBING</t>
+  </si>
+  <si>
+    <t>samniarta@gmail.com</t>
+  </si>
+  <si>
+    <t>S. CLAUDIA OMPUSUNGGU</t>
+  </si>
+  <si>
+    <t>sclaudiaoppusunggu@gmail.com</t>
+  </si>
+  <si>
+    <t>SISKA NOMIA BERUTU</t>
+  </si>
+  <si>
+    <t>siskanomiaberutu@gmail.com</t>
+  </si>
+  <si>
+    <t>SITI RATNA SARI NASUTION</t>
+  </si>
+  <si>
+    <t>sitiratna123oppo@gmail.com</t>
+  </si>
+  <si>
+    <t>SUN ANGEL FEBRYANI BR BUTAR-BUTAR</t>
+  </si>
+  <si>
+    <t>febryborbut@gmail.com</t>
+  </si>
+  <si>
+    <t>WIRA ASTIKA SIHITE</t>
+  </si>
+  <si>
+    <t>wirasihite0711@gmail.com</t>
+  </si>
+  <si>
+    <t>FELIS MARKUS TINAMBUNAN</t>
+  </si>
+  <si>
+    <t>felismarkus8@gmail.com</t>
+  </si>
+  <si>
+    <t>INDRI RIZKIYAH HARAHAP</t>
+  </si>
+  <si>
+    <t>indririzkiyahharahap@gmail.com</t>
+  </si>
+  <si>
+    <t>MANDA SARI NAIBAHO</t>
+  </si>
+  <si>
+    <t>mandanaibaho027@gmail.com</t>
+  </si>
+  <si>
+    <t>sclaudiaumpusunggu15@gmail.com</t>
+  </si>
+  <si>
+    <t>YOLA CRISTINE BANCIN</t>
+  </si>
+  <si>
+    <t>bancinyolacristine@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -258,6 +435,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -282,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,11 +473,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -619,10 +814,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E976"/>
+  <dimension ref="A1:E1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -680,17 +875,17 @@
     </row>
     <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f t="shared" ref="A4:A40" si="0">IF(B3=B4,A3,A3+1)</f>
+        <f t="shared" ref="A4:A67" si="0">IF(B3=B4,A3,A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4">
-        <v>202301005</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
+        <v>202301004</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -699,58 +894,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>202301008</v>
+        <v>202301005</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>202301008</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
+        <v>202301006</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>202301009</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
+        <v>202301007</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>202301008</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>202301011</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -759,10 +954,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>202301016</v>
+        <v>202301008</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -771,13 +969,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>202301017</v>
+        <v>202301009</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -786,142 +984,145 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>202301018</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>202301010</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>202301018</v>
+        <v>202301011</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>202301019</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
+        <v>202301012</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>202301020</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
+        <v>202301013</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>202301022</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
+        <v>202301014</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>202301023</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
+        <v>202301015</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>202301024</v>
+        <v>202301016</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>202301024</v>
+        <v>202301017</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>202301027</v>
+        <v>202301017</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>202301029</v>
+        <v>202301018</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -930,13 +1131,13 @@
         <v>17</v>
       </c>
       <c r="B21">
-        <v>202301031</v>
+        <v>202301018</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -945,13 +1146,13 @@
         <v>18</v>
       </c>
       <c r="B22">
-        <v>202301033</v>
+        <v>202301019</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -960,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B23">
-        <v>202301034</v>
+        <v>202301020</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -975,13 +1176,13 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <v>202301035</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
+        <v>202301021</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -990,13 +1191,13 @@
         <v>21</v>
       </c>
       <c r="B25">
-        <v>202301036</v>
+        <v>202301022</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1005,13 +1206,10 @@
         <v>22</v>
       </c>
       <c r="B26">
-        <v>202301037</v>
+        <v>202301023</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1020,73 +1218,73 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>202301039</v>
+        <v>202301024</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>202301042</v>
+        <v>202301024</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>202301043</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
+        <v>202301025</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>202301044</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
+        <v>202301026</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>202301046</v>
+        <v>202301027</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1095,13 +1293,13 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>202301046</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
+        <v>202301028</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1110,10 +1308,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>202301049</v>
+        <v>202301029</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1122,67 +1323,73 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>202301050</v>
-      </c>
-      <c r="C34" t="s">
-        <v>28</v>
+        <v>202301030</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>202301050</v>
+        <v>202301031</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>202301055</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
+        <v>202301032</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>202301056</v>
+        <v>202301033</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38">
-        <v>202301059</v>
+        <v>202301034</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1191,13 +1398,13 @@
         <v>33</v>
       </c>
       <c r="B39">
-        <v>202301060</v>
+        <v>202301034</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -1206,55 +1413,494 @@
         <v>34</v>
       </c>
       <c r="B40">
+        <v>202301035</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>202301035</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <v>202301036</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>202301037</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <v>202301038</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <v>202301039</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <v>202301040</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>202301041</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>202301042</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>202301043</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>202301044</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <v>202301045</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>202301045</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B53">
+        <v>202301046</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>202301046</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B55">
+        <v>202301047</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>202301047</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B57">
+        <v>202301048</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B58">
+        <v>202301049</v>
+      </c>
+      <c r="C58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B59">
+        <v>202301050</v>
+      </c>
+      <c r="C59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B60">
+        <v>202301050</v>
+      </c>
+      <c r="C60" t="s">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B61">
+        <v>202301051</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B62">
+        <v>202301052</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B63">
+        <v>202301053</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B64">
+        <v>202301055</v>
+      </c>
+      <c r="C64" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B65">
+        <v>202301056</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B66">
+        <v>202301057</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B67">
+        <v>202301058</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" ref="A68:A72" si="1">IF(B67=B68,A67,A67+1)</f>
+        <v>57</v>
+      </c>
+      <c r="B68">
+        <v>202301059</v>
+      </c>
+      <c r="C68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>202301060</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B70">
+        <v>202301060</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B71">
         <v>202301061</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C71" t="s">
         <v>66</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B72">
+        <v>202301063</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1289,6 +1935,7 @@
     <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1319,7 +1966,6 @@
     <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -2150,42 +2796,76 @@
     <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1005" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1006" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1007" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B41:C135">
-    <cfRule type="duplicateValues" dxfId="10" priority="23"/>
+  <conditionalFormatting sqref="B2:C3 B5:C5 B4 B8:C10 B6:B7 B12:C12 B11 B17:C22 B13:B16 B23:B24">
+    <cfRule type="duplicateValues" dxfId="11" priority="159"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:C50 B53:C54 B51:B52 B58:C60 B64:C65 B61:B63 B68:C71 B25:B47 B55:B57 B66:B67">
+    <cfRule type="duplicateValues" dxfId="9" priority="288"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C3 B5:C5 B4 B8:C10 B6:B7 B12:C12 B11 B17:C19 B13:B16">
+    <cfRule type="duplicateValues" dxfId="8" priority="148"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:C3 B5:C5 B4 B8:C10 B6:B7 B12:C12 B11 B17:C23 B73:C153 B72 B30:C31 B29 B35:C35 B34 B37:C43 B36 B45:C45 B44 B48:C50 B46:B47 B53:C54 B51:B52 B58:C60 B64:C65 B61:B63 B68:C71 B13:B16 B25:C28 B24 B33:C33 B32 B55:B57 B66:B67">
+    <cfRule type="duplicateValues" dxfId="7" priority="290"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B73:C166 B72">
+    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="9" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H19:H34">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
+  <conditionalFormatting sqref="C2:C3 C5 C8:C10 C12 C17:C23 C30:C31 C35 C37:C43 C45 C25:C28 C33">
+    <cfRule type="duplicateValues" dxfId="4" priority="226"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D5:D18 D20">
+    <cfRule type="duplicateValues" dxfId="3" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2 D5:D18 D20:D47">
+    <cfRule type="duplicateValues" dxfId="2" priority="228"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 H31:H59">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C10">
-    <cfRule type="duplicateValues" dxfId="6" priority="147"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D4:D9 D11">
-    <cfRule type="duplicateValues" dxfId="5" priority="151"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14 B2:C13">
-    <cfRule type="duplicateValues" dxfId="4" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C27">
-    <cfRule type="duplicateValues" dxfId="3" priority="225"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2 D4:D9 D11:D27">
-    <cfRule type="duplicateValues" dxfId="2" priority="227"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B27 B28:C40">
-    <cfRule type="duplicateValues" dxfId="1" priority="287"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:C122">
-    <cfRule type="duplicateValues" dxfId="0" priority="289"/>
+  <conditionalFormatting sqref="B72">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
